--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -296,6 +296,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -432,7 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -504,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -847,27 +857,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.6328125" style="14" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="14" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -887,7 +897,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
@@ -907,7 +917,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2005</v>
       </c>
@@ -930,7 +940,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2006</v>
       </c>
@@ -955,7 +965,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2007</v>
       </c>
@@ -970,7 +980,7 @@
       <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="28">
         <v>2</v>
       </c>
       <c r="H5" s="12" t="str">
@@ -978,7 +988,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2008</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2009</v>
       </c>
@@ -1020,7 +1030,7 @@
       <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="28">
         <v>2</v>
       </c>
       <c r="H7" s="12" t="str">
@@ -1029,7 +1039,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
@@ -1055,7 +1065,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2010</v>
       </c>
@@ -1072,7 +1082,7 @@
       <c r="F9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="28">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="str">
@@ -1080,7 +1090,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2011</v>
       </c>
@@ -1097,7 +1107,7 @@
       <c r="F10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="28">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="str">
@@ -1105,7 +1115,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2012</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2012</v>
       </c>
@@ -1145,7 +1155,7 @@
       <c r="F12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="28">
         <v>1</v>
       </c>
       <c r="H12" s="12" t="str">
@@ -1154,7 +1164,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2013</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
@@ -1197,14 +1207,14 @@
         <v>30</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>2014</v>
       </c>
@@ -1227,7 +1237,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>2015</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>2016</v>
       </c>
@@ -1293,14 +1303,14 @@
         <v>34</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2017</v>
       </c>
@@ -1318,14 +1328,14 @@
         <v>35</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>2018</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>2019</v>
       </c>
@@ -1482,18 +1492,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1526,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1537,7 +1547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1559,7 +1569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Obv: Normal stars</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Obv: With mint logo - "M"</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -433,16 +439,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,6 +517,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,8 +535,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -522,15 +548,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -563,6 +580,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -584,9 +610,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="6"/>
+    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -858,26 +884,24 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="14" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="13" customWidth="1"/>
+    <col min="3" max="6" width="24.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -887,523 +911,588 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>28</v>
+      <c r="F2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>2005</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="12" t="str">
-        <f t="shared" ref="H3:H20" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I20" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2006</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="str">
+      <c r="G4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>2007</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="28">
+      <c r="H5" s="22">
         <v>2</v>
       </c>
-      <c r="H5" s="12" t="str">
+      <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>2008</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="str">
+      <c r="G6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>2009</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="28">
+      <c r="H7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="str">
+      <c r="I7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>2009</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="12" t="str">
-        <f t="shared" ref="H8" si="1">IF(OR(AND(G8&gt;1,G8&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="I8" s="11" t="str">
+        <f t="shared" ref="I8" si="1">IF(OR(AND(H8&gt;1,H8&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>2010</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="28">
+      <c r="H9" s="22">
         <v>1</v>
       </c>
-      <c r="H9" s="12" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>2011</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="22">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="str">
+      <c r="I10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>2012</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="10">
         <v>0</v>
       </c>
-      <c r="H11" s="12" t="str">
+      <c r="I11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>2012</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="22">
         <v>1</v>
       </c>
-      <c r="H12" s="12" t="str">
+      <c r="I12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>2013</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="10">
         <v>0</v>
       </c>
-      <c r="H13" s="12" t="str">
+      <c r="I13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>2014</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="H14" s="12" t="str">
+      <c r="I14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>2014</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="12" t="str">
+      <c r="I15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>2015</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="12" t="str">
+      <c r="I16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>2015</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="12" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>2016</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="10">
         <v>1</v>
       </c>
-      <c r="H18" s="12" t="str">
+      <c r="I18" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>2017</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="12" t="str">
+      <c r="I19" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>2018</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="10">
         <v>0</v>
       </c>
-      <c r="H20" s="12" t="str">
+      <c r="I20" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>2018</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="10">
         <v>0</v>
       </c>
-      <c r="H21" s="12" t="str">
-        <f t="shared" ref="H21:H22" si="2">IF(OR(AND(G21&gt;1,G21&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="I21" s="11" t="str">
+        <f t="shared" ref="I21:I22" si="2">IF(OR(AND(H21&gt;1,H21&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>2019</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9">
         <v>1000000</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="H22" s="12" t="str">
+      <c r="I22" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1412,14 +1501,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3 G5 G7 G9:G22">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="H3 H5 H7 H9:H22">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G7 G9:G22">
+  <conditionalFormatting sqref="H5 H3 H7 H9:H22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1431,12 +1520,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1448,12 +1537,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1465,12 +1554,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="H8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1496,87 +1585,87 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -520,6 +520,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,17 +532,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -548,6 +548,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -580,15 +589,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -610,9 +610,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="6"/>
-    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -887,33 +887,33 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="13" customWidth="1"/>
-    <col min="3" max="6" width="24.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="13" customWidth="1"/>
+    <col min="3" max="6" width="24.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
@@ -922,9 +922,9 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2005</v>
       </c>
@@ -953,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -971,7 +971,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2006</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2007</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -1027,7 +1027,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2009</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1085,7 +1085,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1113,7 +1113,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1141,7 +1141,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1169,7 +1169,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1197,7 +1197,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2012</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1223,7 +1223,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1251,7 +1251,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="C14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1279,7 +1279,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1298,14 +1298,14 @@
         <v>31</v>
       </c>
       <c r="H15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1326,14 +1326,14 @@
         <v>32</v>
       </c>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1352,14 +1352,14 @@
         <v>33</v>
       </c>
       <c r="H17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1369,7 +1369,7 @@
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1387,7 +1387,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2017</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1415,7 +1415,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2018</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1443,7 +1443,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2018</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -1469,7 +1469,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -1504,11 +1504,11 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3 H5 H7 H9:H22">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9:H22">
+  <conditionalFormatting sqref="H3 H5 H7 H9:H22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1521,7 +1521,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1538,7 +1538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1555,7 +1555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1585,14 +1585,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Obv: With mint logo - "M"</t>
+  </si>
+  <si>
+    <t>Mudéjar Architecture of Aragon</t>
   </si>
 </sst>
 </file>
@@ -881,27 +884,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="13" customWidth="1"/>
-    <col min="3" max="6" width="24.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="13" customWidth="1"/>
+    <col min="3" max="6" width="24.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -922,7 +925,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -945,7 +948,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2005</v>
       </c>
@@ -971,7 +974,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2006</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2007</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2009</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2012</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2017</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2018</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2018</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -1494,6 +1497,32 @@
       </c>
       <c r="I22" s="11" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f t="shared" ref="I23" si="3">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1503,12 +1532,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H22">
+  <conditionalFormatting sqref="H3 H5 H7 H9:H23">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H22">
+  <conditionalFormatting sqref="H5 H3 H7 H9:H23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1585,14 +1614,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1614,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1625,7 +1654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1636,7 +1665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1647,7 +1676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1658,7 +1687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06800D33-EF83-4F61-AFD9-3E555351DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -251,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,7 +549,7 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -606,16 +607,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -883,28 +884,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="13" customWidth="1"/>
-    <col min="3" max="6" width="24.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="13" customWidth="1"/>
+    <col min="3" max="6" width="24.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -925,7 +926,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -948,7 +949,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2005</v>
       </c>
@@ -974,7 +975,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2006</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2007</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2009</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2012</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2017</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2018</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2018</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -1489,8 +1490,8 @@
         <v>24</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="9">
-        <v>1000000</v>
+      <c r="G22" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H22" s="10">
         <v>1</v>
@@ -1500,7 +1501,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2020</v>
       </c>
@@ -1517,7 +1518,9 @@
         <v>24</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="H23" s="10">
         <v>0</v>
       </c>
@@ -1537,7 +1540,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H3 H7 H9:H23">
+  <conditionalFormatting sqref="H3 H5 H7 H9:H23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1607,21 +1610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1700,12 +1703,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Spain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06800D33-EF83-4F61-AFD9-3E555351DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DC89C-D1C3-4330-AFDF-BF98C4C8929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -29,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -65,12 +75,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="H9" authorId="1" shapeId="0" xr:uid="{E02419AA-DA3C-4E47-9149-1C098BD204CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="1" shapeId="0" xr:uid="{8398702E-5028-415D-8137-E4478376B03F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="67">
   <si>
     <t>Year</t>
   </si>
@@ -247,13 +287,37 @@
   </si>
   <si>
     <t>Mudéjar Architecture of Aragon</t>
+  </si>
+  <si>
+    <t>Historic city of Toledo</t>
+  </si>
+  <si>
+    <t>Garajonay National Park</t>
+  </si>
+  <si>
+    <t>1.000.000</t>
+  </si>
+  <si>
+    <t>500th Anniversary - First Circumnavigation. Juan Sebastián Elcano</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Old Town of Cáceres</t>
+  </si>
+  <si>
+    <t>Spanish Presidency of the Council of the EU</t>
+  </si>
+  <si>
+    <t>1.500.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -314,6 +378,17 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -464,7 +539,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +619,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -551,7 +629,47 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -614,9 +732,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -885,27 +1003,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="13" customWidth="1"/>
-    <col min="3" max="6" width="24.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="13" customWidth="1"/>
+    <col min="3" max="6" width="24.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -926,7 +1044,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -949,7 +1067,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2005</v>
       </c>
@@ -975,7 +1093,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2006</v>
       </c>
@@ -1005,7 +1123,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2007</v>
       </c>
@@ -1031,7 +1149,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2008</v>
       </c>
@@ -1061,7 +1179,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2009</v>
       </c>
@@ -1089,7 +1207,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2009</v>
       </c>
@@ -1117,7 +1235,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2010</v>
       </c>
@@ -1137,15 +1255,15 @@
       <c r="G9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="22">
-        <v>1</v>
+      <c r="H9" s="30">
+        <v>2</v>
       </c>
       <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2011</v>
       </c>
@@ -1165,15 +1283,15 @@
       <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="22">
-        <v>1</v>
+      <c r="H10" s="30">
+        <v>2</v>
       </c>
       <c r="I10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2012</v>
       </c>
@@ -1201,7 +1319,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2012</v>
       </c>
@@ -1227,7 +1345,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2013</v>
       </c>
@@ -1255,7 +1373,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2014</v>
       </c>
@@ -1283,7 +1401,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>2014</v>
       </c>
@@ -1309,7 +1427,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2015</v>
       </c>
@@ -1337,7 +1455,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>2015</v>
       </c>
@@ -1363,7 +1481,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>2016</v>
       </c>
@@ -1391,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>2017</v>
       </c>
@@ -1419,7 +1537,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>2018</v>
       </c>
@@ -1447,7 +1565,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>2018</v>
       </c>
@@ -1473,7 +1591,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>2019</v>
       </c>
@@ -1501,7 +1619,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>2020</v>
       </c>
@@ -1526,6 +1644,168 @@
       </c>
       <c r="I23" s="11" t="str">
         <f t="shared" ref="I23" si="3">IF(OR(AND(H23&gt;1,H23&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" ref="I24" si="4">IF(OR(AND(H24&gt;1,H24&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f t="shared" ref="I25:I27" si="5">IF(OR(AND(H25&gt;1,H25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" ref="I28" si="6">IF(OR(AND(H28&gt;1,H28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" ref="I29" si="7">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1535,12 +1815,98 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H23">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="H3 H5 H7 H9:H24">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H23">
+  <conditionalFormatting sqref="H3 H5 H7 H9:H24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1552,12 +1918,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="H27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1569,12 +1935,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H6))))</formula>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1586,12 +1952,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1614,17 +1980,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1646,7 +2012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1657,7 +2023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1668,7 +2034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1679,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1690,7 +2056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Spain/#EURO#Spain#Commemorative#[2005-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8DC89C-D1C3-4330-AFDF-BF98C4C8929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC37E493-04B3-455E-B86B-351DE5B35F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>1.500.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -602,6 +602,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,9 +622,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -630,6 +630,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -669,15 +678,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -732,9 +732,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1009,7 +1009,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1024,46 +1024,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1072,18 +1072,18 @@
         <v>2005</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="10">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>2006</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1128,18 +1128,18 @@
         <v>2007</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="22">
         <v>2</v>
@@ -1154,25 +1154,25 @@
         <v>2008</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1184,20 +1184,20 @@
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="22">
         <v>2</v>
@@ -1212,20 +1212,20 @@
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="10">
         <v>0</v>
@@ -1240,22 +1240,22 @@
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="30">
+        <v>29</v>
+      </c>
+      <c r="H9" s="24">
         <v>2</v>
       </c>
       <c r="I9" s="11" t="str">
@@ -1268,22 +1268,22 @@
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="30">
+        <v>29</v>
+      </c>
+      <c r="H10" s="24">
         <v>2</v>
       </c>
       <c r="I10" s="11" t="str">
@@ -1296,20 +1296,20 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1324,18 +1324,18 @@
         <v>2012</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="22">
         <v>1</v>
@@ -1350,20 +1350,20 @@
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="10">
         <v>0</v>
@@ -1378,20 +1378,20 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="10">
         <v>1</v>
@@ -1406,18 +1406,18 @@
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="10">
         <v>1</v>
@@ -1432,20 +1432,20 @@
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -1460,18 +1460,18 @@
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
@@ -1486,20 +1486,20 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -1514,20 +1514,20 @@
         <v>2017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -1542,20 +1542,20 @@
         <v>2018</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="10">
         <v>0</v>
@@ -1570,18 +1570,18 @@
         <v>2018</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="10">
         <v>0</v>
@@ -1596,20 +1596,20 @@
         <v>2019</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22" s="10">
         <v>1</v>
@@ -1624,20 +1624,20 @@
         <v>2020</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -1652,20 +1652,20 @@
         <v>2021</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
@@ -1680,20 +1680,20 @@
         <v>2022</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="10">
         <v>0</v>
@@ -1708,18 +1708,18 @@
         <v>2022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="10">
         <v>0</v>
@@ -1734,18 +1734,18 @@
         <v>2022</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -1760,20 +1760,20 @@
         <v>2023</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -1788,18 +1788,18 @@
         <v>2023</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -1821,7 +1821,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H5 H7 H9:H24">
+  <conditionalFormatting sqref="H5 H3 H7 H9:H24">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1885,7 +1885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H25))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1902,7 +1902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1919,7 +1919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1936,7 +1936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1953,7 +1953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1992,13 +1992,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2006,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2017,10 +2017,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2028,10 +2028,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2039,10 +2039,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2050,10 +2050,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2061,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
